--- a/branches/jct-refs/StructureDefinition-QT.xlsx
+++ b/branches/jct-refs/StructureDefinition-QT.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T20:10:57+00:00</t>
+    <t>2022-10-10T20:11:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
